--- a/design/Reward.xlsx
+++ b/design/Reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517AD596-75D6-4532-881F-EDD828E2D8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6EDDBC-5113-4107-84EB-65BD2BFFEE14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Reward" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,28 +67,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보상그룹1</t>
   </si>
   <si>
     <t>보상그룹2</t>
   </si>
   <si>
-    <t>*string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,16 +81,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상3</t>
-  </si>
-  <si>
-    <t>보상4</t>
-  </si>
-  <si>
-    <t>보상5</t>
-  </si>
-  <si>
-    <t>보상6</t>
+    <t>(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,144 +446,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
